--- a/templates/F-825-129Q CMD-A.L00.00.C ALIF Fnl QC Insp Rev 22_final.xlsx
+++ b/templates/F-825-129Q CMD-A.L00.00.C ALIF Fnl QC Insp Rev 22_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AI Records\Empty Templates\Fake 825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan Nguyen\Desktop\Compare 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBD920A-51CD-4D1B-BA7F-D9FEF92ABC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3A827F-7095-4075-B5B6-C370AEA043FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,21 +381,6 @@
     <t>25-056</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CMD A.L00.00.C aprevo ALIF Rev </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>22</t>
-    </r>
-  </si>
-  <si>
     <t>Update per drawing Rev22 requrements, removal of the second signature, removal of the warning limits</t>
   </si>
   <si>
@@ -469,6 +454,9 @@
   </si>
   <si>
     <t>{{Job Number}}</t>
+  </si>
+  <si>
+    <t>CMD A.L00.00.C aprevo ALIF Rev 22</t>
   </si>
 </sst>
 </file>
@@ -478,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddmmmyyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,13 +611,6 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1036,7 +1017,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1069,9 +1050,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,7 +1104,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1139,6 +1117,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1433,7 +1414,7 @@
   <dimension ref="A2:P65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="G10" sqref="G10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1455,71 +1436,71 @@
       <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="87"/>
+      <c r="B2" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="113"/>
       <c r="D2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="113"/>
+      <c r="G2" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="94"/>
+      <c r="L2" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="A3" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="113" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="95" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="91" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A3" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="93" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="87"/>
       <c r="H4" s="87"/>
       <c r="I4" s="88"/>
@@ -1532,16 +1513,16 @@
       <c r="P4" s="87"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
+      <c r="A5" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="88"/>
       <c r="H5" s="89"/>
       <c r="I5" s="89"/>
@@ -1554,16 +1535,16 @@
       <c r="P5" s="87"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="87" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
+      <c r="A6" s="113" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="88"/>
       <c r="H6" s="89"/>
       <c r="I6" s="89"/>
@@ -1576,16 +1557,16 @@
       <c r="P6" s="87"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="A7" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="88"/>
       <c r="H7" s="89"/>
       <c r="I7" s="89"/>
@@ -1598,16 +1579,16 @@
       <c r="P7" s="87"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="A8" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="88"/>
       <c r="H8" s="89"/>
       <c r="I8" s="90"/>
@@ -1620,16 +1601,16 @@
       <c r="P8" s="90"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+      <c r="A9" s="113" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="87"/>
       <c r="H9" s="87"/>
       <c r="I9" s="88"/>
@@ -1642,16 +1623,16 @@
       <c r="P9" s="87"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
+      <c r="A10" s="113" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="88"/>
       <c r="H10" s="89"/>
       <c r="I10" s="89"/>
@@ -1664,16 +1645,16 @@
       <c r="P10" s="87"/>
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
+      <c r="A11" s="113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="88"/>
       <c r="H11" s="89"/>
       <c r="I11" s="89"/>
@@ -1686,16 +1667,16 @@
       <c r="P11" s="87"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
+      <c r="A12" s="113" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
       <c r="G12" s="88"/>
       <c r="H12" s="89"/>
       <c r="I12" s="89"/>
@@ -1708,16 +1689,16 @@
       <c r="P12" s="87"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
+      <c r="A13" s="113" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="87"/>
       <c r="H13" s="87"/>
       <c r="I13" s="88"/>
@@ -1730,16 +1711,16 @@
       <c r="P13" s="87"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
+      <c r="A14" s="113" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="88"/>
       <c r="H14" s="89"/>
       <c r="I14" s="89"/>
@@ -1752,16 +1733,16 @@
       <c r="P14" s="87"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+      <c r="A15" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
       <c r="G15" s="88"/>
       <c r="H15" s="89"/>
       <c r="I15" s="89"/>
@@ -1774,16 +1755,16 @@
       <c r="P15" s="87"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
+      <c r="A16" s="113" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
       <c r="G16" s="88"/>
       <c r="H16" s="89"/>
       <c r="I16" s="89"/>
@@ -1796,16 +1777,16 @@
       <c r="P16" s="87"/>
     </row>
     <row r="17" spans="1:16" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
+      <c r="A17" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
       <c r="G17" s="88"/>
       <c r="H17" s="89"/>
       <c r="I17" s="89"/>
@@ -1818,16 +1799,16 @@
       <c r="P17" s="87"/>
     </row>
     <row r="18" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
+      <c r="A18" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="88"/>
       <c r="H18" s="89"/>
       <c r="I18" s="89"/>
@@ -1840,16 +1821,16 @@
       <c r="P18" s="87"/>
     </row>
     <row r="19" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
+      <c r="A19" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
       <c r="I19" s="88"/>
@@ -1862,16 +1843,16 @@
       <c r="P19" s="87"/>
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
+      <c r="A20" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="88"/>
       <c r="H20" s="89"/>
       <c r="I20" s="89"/>
@@ -1884,16 +1865,16 @@
       <c r="P20" s="87"/>
     </row>
     <row r="21" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
+      <c r="A21" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="88"/>
       <c r="H21" s="89"/>
       <c r="I21" s="89"/>
@@ -1906,16 +1887,16 @@
       <c r="P21" s="87"/>
     </row>
     <row r="22" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
+      <c r="A22" s="113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
       <c r="G22" s="88"/>
       <c r="H22" s="89"/>
       <c r="I22" s="89"/>
@@ -1928,16 +1909,16 @@
       <c r="P22" s="87"/>
     </row>
     <row r="23" spans="1:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="A23" s="113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
       <c r="G23" s="88"/>
       <c r="H23" s="89"/>
       <c r="I23" s="89"/>
@@ -1950,16 +1931,16 @@
       <c r="P23" s="87"/>
     </row>
     <row r="24" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
+      <c r="A24" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
       <c r="G24" s="88"/>
       <c r="H24" s="89"/>
       <c r="I24" s="89"/>
@@ -2124,10 +2105,10 @@
         <v>17</v>
       </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="108"/>
+      <c r="G33" s="107"/>
       <c r="H33" s="17" t="s">
         <v>0</v>
       </c>
@@ -2137,13 +2118,13 @@
       <c r="J33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K33" s="108" t="s">
+      <c r="K33" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
       <c r="P33" s="12"/>
     </row>
     <row r="34" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
@@ -2160,22 +2141,22 @@
         <v>17</v>
       </c>
       <c r="E34" s="66"/>
-      <c r="F34" s="96" t="s">
+      <c r="F34" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="97"/>
+      <c r="G34" s="96"/>
       <c r="H34" s="25">
         <v>1</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="30"/>
-      <c r="K34" s="114" t="s">
+      <c r="K34" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="113"/>
+      <c r="N34" s="113"/>
+      <c r="O34" s="113"/>
     </row>
     <row r="35" spans="1:16" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="28" t="s">
@@ -2191,22 +2172,22 @@
         <v>1</v>
       </c>
       <c r="E35" s="66"/>
-      <c r="F35" s="96" t="s">
+      <c r="F35" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="97"/>
+      <c r="G35" s="96"/>
       <c r="H35" s="25">
         <v>1</v>
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="114" t="s">
+      <c r="K35" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="113"/>
+      <c r="O35" s="113"/>
     </row>
     <row r="36" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="26" t="s">
@@ -2222,22 +2203,22 @@
         <v>1</v>
       </c>
       <c r="E36" s="58"/>
-      <c r="F36" s="96" t="s">
+      <c r="F36" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="97"/>
+      <c r="G36" s="96"/>
       <c r="H36" s="25">
         <v>1</v>
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="30"/>
-      <c r="K36" s="114" t="s">
+      <c r="K36" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
     </row>
     <row r="37" spans="1:16" ht="84" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="28" t="s">
@@ -2253,22 +2234,22 @@
         <v>1</v>
       </c>
       <c r="E37" s="58"/>
-      <c r="F37" s="98" t="s">
+      <c r="F37" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="99"/>
+      <c r="G37" s="98"/>
       <c r="H37" s="25">
         <v>1</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="30"/>
-      <c r="K37" s="114" t="s">
+      <c r="K37" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
     </row>
     <row r="38" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="26" t="s">
@@ -2284,22 +2265,22 @@
         <v>1</v>
       </c>
       <c r="E38" s="58"/>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="97" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="99"/>
+      <c r="G38" s="98"/>
       <c r="H38" s="25">
         <v>1</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="114" t="s">
+      <c r="K38" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="113"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
     </row>
     <row r="39" spans="1:16" ht="80.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="26" t="s">
@@ -2315,22 +2296,22 @@
         <v>1</v>
       </c>
       <c r="E39" s="58"/>
-      <c r="F39" s="96" t="s">
+      <c r="F39" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="97"/>
+      <c r="G39" s="96"/>
       <c r="H39" s="25">
         <v>1</v>
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="30"/>
-      <c r="K39" s="111" t="s">
+      <c r="K39" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="113"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="111"/>
+      <c r="N39" s="111"/>
+      <c r="O39" s="112"/>
     </row>
     <row r="40" spans="1:16" ht="93.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="26" t="s">
@@ -2346,22 +2327,22 @@
         <v>1</v>
       </c>
       <c r="E40" s="58"/>
-      <c r="F40" s="98" t="s">
+      <c r="F40" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="99"/>
+      <c r="G40" s="98"/>
       <c r="H40" s="25">
         <v>1</v>
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="30"/>
-      <c r="K40" s="111" t="s">
+      <c r="K40" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="113"/>
+      <c r="L40" s="111"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
+      <c r="O40" s="112"/>
     </row>
     <row r="41" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="78" t="s">
@@ -2377,22 +2358,22 @@
         <v>2</v>
       </c>
       <c r="E41" s="58"/>
-      <c r="F41" s="98" t="s">
+      <c r="F41" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="99"/>
+      <c r="G41" s="98"/>
       <c r="H41" s="25">
         <v>1</v>
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="111" t="s">
+      <c r="K41" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
-      <c r="O41" s="113"/>
+      <c r="L41" s="111"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="112"/>
     </row>
     <row r="42" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="28" t="s">
@@ -2408,22 +2389,22 @@
         <v>1</v>
       </c>
       <c r="E42" s="81"/>
-      <c r="F42" s="110" t="s">
+      <c r="F42" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="82">
         <v>1</v>
       </c>
       <c r="I42" s="83"/>
       <c r="J42" s="84"/>
-      <c r="K42" s="105" t="s">
+      <c r="K42" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="106"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="106"/>
-      <c r="O42" s="107"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="106"/>
     </row>
     <row r="43" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="28" t="s">
@@ -2439,22 +2420,22 @@
         <v>1</v>
       </c>
       <c r="E43" s="58"/>
-      <c r="F43" s="96" t="s">
+      <c r="F43" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="97"/>
+      <c r="G43" s="96"/>
       <c r="H43" s="25">
         <v>1</v>
       </c>
       <c r="I43" s="29"/>
       <c r="J43" s="30"/>
-      <c r="K43" s="100" t="s">
+      <c r="K43" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="102"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="101"/>
     </row>
     <row r="44" spans="1:16" ht="43.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
@@ -2470,22 +2451,22 @@
         <v>23</v>
       </c>
       <c r="E44" s="58"/>
-      <c r="F44" s="96" t="s">
+      <c r="F44" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="97"/>
+      <c r="G44" s="96"/>
       <c r="H44" s="25">
         <v>1</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="30"/>
-      <c r="K44" s="100" t="s">
+      <c r="K44" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="102"/>
+      <c r="L44" s="100"/>
+      <c r="M44" s="100"/>
+      <c r="N44" s="100"/>
+      <c r="O44" s="101"/>
     </row>
     <row r="45" spans="1:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
@@ -2502,22 +2483,22 @@
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="53"/>
-      <c r="G45" s="104" t="s">
+      <c r="G45" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="104"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="108" t="s">
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="108"/>
-      <c r="L45" s="103" t="s">
+      <c r="K45" s="107"/>
+      <c r="L45" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="M45" s="103"/>
-      <c r="N45" s="103"/>
-      <c r="O45" s="103"/>
-      <c r="P45" s="103"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
@@ -2526,20 +2507,20 @@
       <c r="D46" s="7"/>
       <c r="E46" s="55"/>
       <c r="F46" s="56"/>
-      <c r="G46" s="109">
+      <c r="G46" s="108">
         <v>19</v>
       </c>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="103">
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
+      <c r="J46" s="102">
         <v>21</v>
       </c>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="102"/>
     </row>
     <row r="47" spans="1:16" ht="15.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="31" t="s">
@@ -2650,7 +2631,7 @@
         <v>45799</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
